--- a/data/trans_bre/P07B_R_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R_2023-Estudios-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.610170376316337</v>
+        <v>3.782382084013773</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.2739118599700222</v>
+        <v>0.2804907106012962</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.00139880775769</v>
+        <v>10.14681644466728</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.044062265787032</v>
+        <v>1.071957094411952</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2.715688360983186</v>
+        <v>2.715688360983184</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.5531051482197306</v>
+        <v>0.5531051482197302</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.274613583803266</v>
+        <v>1.318914996585478</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2218276742889322</v>
+        <v>0.2183450970619955</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.21640778547228</v>
+        <v>4.144512549712403</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.011359116776284</v>
+        <v>0.9976719678761474</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.5456420130449495</v>
+        <v>-0.5456420130449489</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.09044916842946676</v>
+        <v>-0.09044916842946667</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.002186999594583</v>
+        <v>-3.437790589596705</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.4033039800423145</v>
+        <v>-0.4319922184486202</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.088576124911885</v>
+        <v>1.84818758467183</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.4880214651801298</v>
+        <v>0.4165013587605844</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.390330259606057</v>
+        <v>3.390330259606056</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.5424944337893836</v>
+        <v>0.5424944337893832</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.249385733308096</v>
+        <v>2.121047303518435</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3209761031341868</v>
+        <v>0.3015077724060903</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.62750159075792</v>
+        <v>4.658772408732953</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8440846913522434</v>
+        <v>0.8289277357014238</v>
       </c>
     </row>
     <row r="16">
